--- a/2024/shuffle-architecute/Teste10/content/results/metrics_6_6.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_6_6.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_3</t>
+          <t>model_6_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9848635916464079</v>
+        <v>0.9146672907495073</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8113598496879149</v>
+        <v>0.7506674919776666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6361724803309786</v>
+        <v>-1.231703838083379</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9916229055195405</v>
+        <v>0.9257754557422908</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8463828432279495</v>
+        <v>0.2018171061155909</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06352426111698151</v>
+        <v>0.3581231236457825</v>
       </c>
       <c r="H2" t="n">
-        <v>1.26143753528595</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I2" t="n">
-        <v>0.281178891658783</v>
+        <v>2.183457851409912</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007547926157712936</v>
+        <v>0.05481152236461639</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1443634182214737</v>
+        <v>1.119134783744812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_4</t>
+          <t>model_6_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9852486920945418</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8113234149943269</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6244067290799609</v>
+        <v>-1.231698620475137</v>
       </c>
       <c r="E3" t="n">
-        <v>0.989905337851719</v>
+        <v>0.9257754724134649</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8407214924576462</v>
+        <v>0.2018191393781974</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06190807744860649</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H3" t="n">
-        <v>1.261681318283081</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2902718782424927</v>
+        <v>2.183452844619751</v>
       </c>
       <c r="J3" t="n">
-        <v>0.009095488116145134</v>
+        <v>0.0548115111887455</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1496837288141251</v>
+        <v>1.119131922721863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_2</t>
+          <t>model_6_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9842482012926668</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8112516638463777</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6469953058134645</v>
+        <v>-1.231698620475137</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9930830333580959</v>
+        <v>0.9257754724134649</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8515330371489993</v>
+        <v>0.2018191393781974</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06610692292451859</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H4" t="n">
-        <v>1.262161016464233</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2728146314620972</v>
+        <v>2.183452844619751</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006232322193682194</v>
+        <v>0.0548115111887455</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1395234614610672</v>
+        <v>1.119131922721863</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_5</t>
+          <t>model_6_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9854701313908288</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C5" t="n">
-        <v>0.811193895914067</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6125114862033532</v>
+        <v>-1.231698620475137</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9880143443147053</v>
+        <v>0.9257754724134649</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8349237721508168</v>
+        <v>0.2018191393781974</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06097874790430069</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H5" t="n">
-        <v>1.262547254562378</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2994649410247803</v>
+        <v>2.183452844619751</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01079930923879147</v>
+        <v>0.0548115111887455</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1551321893930435</v>
+        <v>1.119131922721863</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_6</t>
+          <t>model_6_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9855752786845595</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8110061891540117</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6009662008848351</v>
+        <v>-1.231698620475137</v>
       </c>
       <c r="E6" t="n">
-        <v>0.98601505063366</v>
+        <v>0.9257754724134649</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8292181033601568</v>
+        <v>0.2018191393781974</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06053747236728668</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H6" t="n">
-        <v>1.263802409172058</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3083875775337219</v>
+        <v>2.183452844619751</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01260071247816086</v>
+        <v>0.0548115111887455</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1604941636323929</v>
+        <v>1.119131922721863</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_1</t>
+          <t>model_6_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9833084174247698</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8109227945548758</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6555602511436451</v>
+        <v>-1.231698620475137</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9941721401877729</v>
+        <v>0.9257754724134649</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8555769178696138</v>
+        <v>0.2018191393781974</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07005099952220917</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H7" t="n">
-        <v>1.264360189437866</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2661953568458557</v>
+        <v>2.183452844619751</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005251015070825815</v>
+        <v>0.0548115111887455</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1357231736183167</v>
+        <v>1.119131922721863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_7</t>
+          <t>model_6_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9855980452181548</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8107839977841556</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5900361918529656</v>
+        <v>-1.231698620475137</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9839598137552754</v>
+        <v>0.9257754724134649</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8237385426650191</v>
+        <v>0.2018191393781974</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06044192239642143</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H8" t="n">
-        <v>1.265288352966309</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3168346583843231</v>
+        <v>2.183452844619751</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01445252168923616</v>
+        <v>0.0548115111887455</v>
       </c>
       <c r="K8" t="n">
-        <v>0.165643647313118</v>
+        <v>1.119131922721863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_8</t>
+          <t>model_6_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9855629984401963</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8105434995336673</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D9" t="n">
-        <v>0.579852023529791</v>
+        <v>-1.231698620475137</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9818903246104699</v>
+        <v>0.9257754724134649</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8185588754439803</v>
+        <v>0.2018191393781974</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06058900430798531</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H9" t="n">
-        <v>1.266896486282349</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3247053325176239</v>
+        <v>2.183452844619751</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01631717011332512</v>
+        <v>0.0548115111887455</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1705112755298615</v>
+        <v>1.119131922721863</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_9</t>
+          <t>model_6_6_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9854880107522235</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C10" t="n">
-        <v>0.810295823590198</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D10" t="n">
-        <v>0.570461527630352</v>
+        <v>-1.231698620475137</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9798397142848367</v>
+        <v>0.9257754724134649</v>
       </c>
       <c r="F10" t="n">
-        <v>0.813714563151121</v>
+        <v>0.2018191393781974</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06090371310710907</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H10" t="n">
-        <v>1.268552660942078</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3319626748561859</v>
+        <v>2.183452844619751</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01816481165587902</v>
+        <v>0.0548115111887455</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1750637888908386</v>
+        <v>1.119131922721863</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_0</t>
+          <t>model_6_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9819118476396934</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8102629864891172</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6598275317216988</v>
+        <v>-1.231698620475137</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9947278020290099</v>
+        <v>0.9257754724134649</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8575979298024752</v>
+        <v>0.2018191393781974</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07591210305690765</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H11" t="n">
-        <v>1.26877236366272</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2628974318504333</v>
+        <v>2.183452844619751</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004750353284180164</v>
+        <v>0.0548115111887455</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1338239014148712</v>
+        <v>1.119131922721863</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_10</t>
+          <t>model_6_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9853862690380009</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8100485488593754</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5618645155608915</v>
+        <v>-1.231698620475137</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9778340021773804</v>
+        <v>0.9257754724134649</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8092181404835023</v>
+        <v>0.2018191393781974</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06133069843053818</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H12" t="n">
-        <v>1.270206212997437</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3386067450046539</v>
+        <v>2.183452844619751</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01997199840843678</v>
+        <v>0.0548115111887455</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1792893409729004</v>
+        <v>1.119131922721863</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_11</t>
+          <t>model_6_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.985267470118435</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8098068379188539</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5540318745911914</v>
+        <v>-1.231698620475137</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9758931554631691</v>
+        <v>0.9257754724134649</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8050671017962328</v>
+        <v>0.2018191393781974</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06182927265763283</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H13" t="n">
-        <v>1.271822571754456</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3446600735187531</v>
+        <v>2.183452844619751</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02172073908150196</v>
+        <v>0.0548115111887455</v>
       </c>
       <c r="K13" t="n">
-        <v>0.183190330862999</v>
+        <v>1.119131922721863</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9851387877332054</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8095741392992193</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5469198744685246</v>
+        <v>-1.231698620475137</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9740317485885883</v>
+        <v>0.9257754724134649</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8012502738435909</v>
+        <v>0.2018191393781974</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06236932426691055</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H14" t="n">
-        <v>1.273378610610962</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3501564860343933</v>
+        <v>2.183452844619751</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0233979020267725</v>
+        <v>0.0548115111887455</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1867772340774536</v>
+        <v>1.119131922721863</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_13</t>
+          <t>model_6_6_6</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9850054412000273</v>
+        <v>0.9146674204097884</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8093526248883447</v>
+        <v>0.7506674763976487</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5404759330843032</v>
+        <v>-1.231700247512198</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9722599597182027</v>
+        <v>0.9257754636640544</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7977512683376378</v>
+        <v>0.2018183241365017</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06292895972728729</v>
+        <v>0.3581225574016571</v>
       </c>
       <c r="H15" t="n">
-        <v>1.27485990524292</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3551366031169891</v>
+        <v>2.183454513549805</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02499431744217873</v>
+        <v>0.0548115149140358</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1900654733181</v>
+        <v>1.119132995605469</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_14</t>
+          <t>model_6_6_3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9848713741016303</v>
+        <v>0.9146673179777083</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8091436067993434</v>
+        <v>0.7506674909609755</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5346490029890412</v>
+        <v>-1.231701937374735</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9705846752564435</v>
+        <v>0.9257756223160907</v>
       </c>
       <c r="F16" t="n">
-        <v>0.794552208178418</v>
+        <v>0.2018173640557801</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06349160522222519</v>
+        <v>0.3581229746341705</v>
       </c>
       <c r="H16" t="n">
-        <v>1.276257514953613</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3596398532390594</v>
+        <v>2.183456182479858</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02650378085672855</v>
+        <v>0.05481139943003654</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1930718123912811</v>
+        <v>1.119134426116943</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_15</t>
+          <t>model_6_6_1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9847392819521337</v>
+        <v>0.9146673832745795</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8089477751613002</v>
+        <v>0.7506674924413923</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5293844570670856</v>
+        <v>-1.231701454284895</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9690090772960783</v>
+        <v>0.9257754952131676</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7916321720783362</v>
+        <v>0.2018179748435766</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06404596567153931</v>
+        <v>0.3581227362155914</v>
       </c>
       <c r="H17" t="n">
-        <v>1.277567148208618</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3637084662914276</v>
+        <v>2.1834557056427</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02792342752218246</v>
+        <v>0.0548114962875843</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1958159506320953</v>
+        <v>1.119133472442627</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_16</t>
+          <t>model_6_6_11</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.984611168737392</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8087652890101988</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5246324607738482</v>
+        <v>-1.231698620475137</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9675348510084562</v>
+        <v>0.9257754724134649</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7889714602213971</v>
+        <v>0.2018191393781974</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06458363682031631</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H18" t="n">
-        <v>1.27878737449646</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3673809766769409</v>
+        <v>2.183452844619751</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02925173379480839</v>
+        <v>0.0548115111887455</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1983163803815842</v>
+        <v>1.119131922721863</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_17</t>
+          <t>model_6_6_24</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.984488373334294</v>
+        <v>0.9146674851241153</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8085960592730119</v>
+        <v>0.7506674801333872</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5203456174252552</v>
+        <v>-1.231698620475137</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9661611983045467</v>
+        <v>0.9257754724134649</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7865503339738853</v>
+        <v>0.2018191393781974</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06509897112846375</v>
+        <v>0.3581222891807556</v>
       </c>
       <c r="H19" t="n">
-        <v>1.279919028282166</v>
+        <v>1.667287588119507</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3706940412521362</v>
+        <v>2.183452844619751</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03048942238092422</v>
+        <v>0.0548115111887455</v>
       </c>
       <c r="K19" t="n">
-        <v>0.200591653585434</v>
+        <v>1.119131922721863</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_18</t>
+          <t>model_6_6_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9843717637903149</v>
+        <v>0.9146674127049538</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8084397303343123</v>
+        <v>0.7506674713489548</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5164797804162276</v>
+        <v>-1.231700974050759</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9648860945900721</v>
+        <v>0.9257753482467178</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7843493098183016</v>
+        <v>0.2018180387033112</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06558836251497269</v>
+        <v>0.3581226468086243</v>
       </c>
       <c r="H20" t="n">
-        <v>1.280964374542236</v>
+        <v>1.667287707328796</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3736816942691803</v>
+        <v>2.183455228805542</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03163831308484077</v>
+        <v>0.05481160059571266</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2026601135730743</v>
+        <v>1.119133472442627</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_19</t>
+          <t>model_6_6_2</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.98426184632847</v>
+        <v>0.9146673556040145</v>
       </c>
       <c r="C21" t="n">
-        <v>0.808295795627644</v>
+        <v>0.7506674855448852</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5129937748490652</v>
+        <v>-1.231702058266182</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9637066307725155</v>
+        <v>0.9257754952525793</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7823505686138479</v>
+        <v>0.2018174616045605</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06604966521263123</v>
+        <v>0.3581228256225586</v>
       </c>
       <c r="H21" t="n">
-        <v>1.281926870346069</v>
+        <v>1.667287707328796</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3763757944107056</v>
+        <v>2.183456182479858</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0327010340988636</v>
+        <v>0.05481149256229401</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2045384496450424</v>
+        <v>1.119134306907654</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_20</t>
+          <t>model_6_6_10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9841589243108052</v>
+        <v>0.9146674025690695</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8081636438671058</v>
+        <v>0.7506674688929509</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5098531236158543</v>
+        <v>-1.231702591092858</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9626183125232627</v>
+        <v>0.9257758834584067</v>
       </c>
       <c r="F22" t="n">
-        <v>0.780537409679506</v>
+        <v>0.2018181579071113</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06648160517215729</v>
+        <v>0.3581226468086243</v>
       </c>
       <c r="H22" t="n">
-        <v>1.282810688018799</v>
+        <v>1.667287826538086</v>
       </c>
       <c r="I22" t="n">
-        <v>0.378803014755249</v>
+        <v>2.183456659317017</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03368163108825684</v>
+        <v>0.05481120571494102</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2062423825263977</v>
+        <v>1.119133234024048</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_21</t>
+          <t>model_6_6_9</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9840630176560867</v>
+        <v>0.9146673956086974</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8080425744914927</v>
+        <v>0.7506674658101056</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5070224289337268</v>
+        <v>-1.231702700561491</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9616173303594667</v>
+        <v>0.9257758859413475</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7788936281543075</v>
+        <v>0.2018180921480867</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06688410043716431</v>
+        <v>0.3581226766109467</v>
       </c>
       <c r="H23" t="n">
-        <v>1.283620238304138</v>
+        <v>1.667287826538086</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3809906542301178</v>
+        <v>2.183456897735596</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03458353504538536</v>
+        <v>0.05481120571494102</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2077871263027191</v>
+        <v>1.119133353233337</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_22</t>
+          <t>model_6_6_8</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.983974033014884</v>
+        <v>0.9146673975885565</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8079319172394618</v>
+        <v>0.7506674660349266</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5044718026086781</v>
+        <v>-1.231701061387691</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9606984478370754</v>
+        <v>0.9257755256981632</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7774044212083496</v>
+        <v>0.2018181087020078</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06725755333900452</v>
+        <v>0.3581226766109467</v>
       </c>
       <c r="H24" t="n">
-        <v>1.28436017036438</v>
+        <v>1.667287826538086</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3829618692398071</v>
+        <v>2.183455228805542</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03541146591305733</v>
+        <v>0.05481147021055222</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2091866284608841</v>
+        <v>1.119133353233337</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_23</t>
+          <t>model_6_6_7</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9838917856689227</v>
+        <v>0.9146674574745013</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8078309525403473</v>
+        <v>0.7506674584854984</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5021737858717136</v>
+        <v>-1.231699608548543</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9598568581153146</v>
+        <v>0.9257756019796231</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7760559822817532</v>
+        <v>0.2018189239281355</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0676027312874794</v>
+        <v>0.3581224083900452</v>
       </c>
       <c r="H25" t="n">
-        <v>1.285035371780396</v>
+        <v>1.667287826538086</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3847378790378571</v>
+        <v>2.183453798294067</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03616975620388985</v>
+        <v>0.05481141805648804</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2104538381099701</v>
+        <v>1.119132161140442</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_24</t>
+          <t>model_6_6_4</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9838160069437604</v>
+        <v>0.9146673507471206</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8077389596778137</v>
+        <v>0.7506674660380811</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5001037759743132</v>
+        <v>-1.231701411687318</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9590873620254843</v>
+        <v>0.9257754631714074</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7748359657030442</v>
+        <v>0.2018176720469315</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0679207518696785</v>
+        <v>0.3581229150295258</v>
       </c>
       <c r="H26" t="n">
-        <v>1.285650491714478</v>
+        <v>1.667287826538086</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3863376379013062</v>
+        <v>2.183455467224121</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03686308488249779</v>
+        <v>0.0548115149140358</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2116003781557083</v>
+        <v>1.119133949279785</v>
       </c>
     </row>
   </sheetData>
